--- a/docs/extension-topic-summary.xlsx
+++ b/docs/extension-topic-summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>Path</t>
   </si>
@@ -140,7 +140,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Text Summary</t>
+    <t>Topic Summary</t>
   </si>
   <si>
     <t>A human-readable narrative summary that contains a reportability determination, the responsible PHA(s), and the PHA(s) that will be sent the eICR (when deemed reportable).</t>
@@ -231,7 +231,11 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.valueString</t>
+    <t>Extension.valueMarkdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -398,7 +402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.3828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.69140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -977,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1034,7 +1038,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
